--- a/src/main/resources/db/plantCategory.xlsx
+++ b/src/main/resources/db/plantCategory.xlsx
@@ -1,44 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salih KORKMAZ\IdeaProjects\Tarim-Proje1\src\main\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC665D2-DC0F-4832-9D47-AA23E0D96282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5160" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Aromatik Bitkiler</t>
+  </si>
+  <si>
+    <t>Baklagiller</t>
+  </si>
+  <si>
+    <t>Endüstri Bitkileri</t>
+  </si>
+  <si>
+    <t>Meyveler</t>
+  </si>
+  <si>
+    <t>Sebzeler</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tahıllar</t>
+  </si>
+  <si>
+    <t>Tıbbi Bitkiler</t>
+  </si>
+  <si>
+    <t>Yağlı Tohumlar</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,79 +428,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="str">
-        <v>Aromatik Bitkiler</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>4</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Baklagiller</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B3" t="str">
-        <v>Endüstri Bitkileri</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="str">
-        <v>Meyveler</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Sebzeler</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>3</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Tahıllar</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="str">
-        <v>Tıbbi Bitkiler</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>5</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Yağlı Tohumlar</v>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
-  </ignoredErrors>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>